--- a/Code/Results/Cases/Case_3_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8132721197424075</v>
+        <v>0.2882132122826988</v>
       </c>
       <c r="C2">
-        <v>0.1317588000271286</v>
+        <v>0.04006109076328812</v>
       </c>
       <c r="D2">
-        <v>0.2206873289231481</v>
+        <v>0.2543585930202283</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.80172149731861</v>
+        <v>1.556594914100124</v>
       </c>
       <c r="G2">
-        <v>0.0008179435880541477</v>
+        <v>0.00247158008162638</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3504927830502993</v>
+        <v>0.768751709634742</v>
       </c>
       <c r="J2">
-        <v>0.1973224136983873</v>
+        <v>0.3073440924463711</v>
       </c>
       <c r="K2">
-        <v>0.8923207217904974</v>
+        <v>0.3037661563881215</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4053224375153945</v>
+        <v>0.2730817823166234</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.757708364372917</v>
+        <v>3.62665395167744</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.708474263979582</v>
+        <v>0.2563337833487935</v>
       </c>
       <c r="C3">
-        <v>0.1154397023611295</v>
+        <v>0.03504299120776011</v>
       </c>
       <c r="D3">
-        <v>0.1969754757666635</v>
+        <v>0.2490823709131149</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7815153805987407</v>
+        <v>1.562082103744899</v>
       </c>
       <c r="G3">
-        <v>0.0008215933054578343</v>
+        <v>0.002473959002247813</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3577797598867996</v>
+        <v>0.7759094548576009</v>
       </c>
       <c r="J3">
-        <v>0.1839101809460715</v>
+        <v>0.3058834325174828</v>
       </c>
       <c r="K3">
-        <v>0.7780857093245857</v>
+        <v>0.2689076935155867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3539396104641739</v>
+        <v>0.2595079266723488</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.75159168306925</v>
+        <v>3.650691019819192</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.644162042672292</v>
+        <v>0.2367600123551483</v>
       </c>
       <c r="C4">
-        <v>0.1054235992735215</v>
+        <v>0.031953788277022</v>
       </c>
       <c r="D4">
-        <v>0.1825735467504046</v>
+        <v>0.2459465689774305</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7705429610358223</v>
+        <v>1.566232761400791</v>
       </c>
       <c r="G4">
-        <v>0.0008239089768173706</v>
+        <v>0.002475498054288273</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3629704879858835</v>
+        <v>0.7806806984437777</v>
       </c>
       <c r="J4">
-        <v>0.1759656817300197</v>
+        <v>0.3051430898805805</v>
       </c>
       <c r="K4">
-        <v>0.7079769705806029</v>
+        <v>0.2474913289713214</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3225798698418103</v>
+        <v>0.2512761700026616</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.751354379726052</v>
+        <v>3.66729933361367</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.617954737603327</v>
+        <v>0.2287841212755097</v>
       </c>
       <c r="C5">
-        <v>0.1013414343309478</v>
+        <v>0.0306929443917312</v>
       </c>
       <c r="D5">
-        <v>0.1767411659852911</v>
+        <v>0.2446949278645434</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7664170402626027</v>
+        <v>1.568120812025718</v>
       </c>
       <c r="G5">
-        <v>0.0008248717385147338</v>
+        <v>0.002476144998871488</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3652597838701901</v>
+        <v>0.7827196588047549</v>
       </c>
       <c r="J5">
-        <v>0.1727972210823836</v>
+        <v>0.3048807777764395</v>
       </c>
       <c r="K5">
-        <v>0.6794059804264378</v>
+        <v>0.2387612012149418</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3098422554926117</v>
+        <v>0.2479476766143662</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.752107518433149</v>
+        <v>3.674532481536929</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6136028332272474</v>
+        <v>0.227459780311932</v>
       </c>
       <c r="C6">
-        <v>0.1006635203521853</v>
+        <v>0.0304834651157222</v>
       </c>
       <c r="D6">
-        <v>0.1757748240839874</v>
+        <v>0.2444886811089333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7657523659859891</v>
+        <v>1.568446200211483</v>
       </c>
       <c r="G6">
-        <v>0.0008250327673708006</v>
+        <v>0.002476253619135447</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3656502567018762</v>
+        <v>0.7830639426766304</v>
       </c>
       <c r="J6">
-        <v>0.1722751510927552</v>
+        <v>0.3048396005534784</v>
       </c>
       <c r="K6">
-        <v>0.6746614647568379</v>
+        <v>0.2373114171440704</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3077295378199096</v>
+        <v>0.2473965600137191</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.752282916139691</v>
+        <v>3.675761634569881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6438086103746059</v>
+        <v>0.2366524436915824</v>
       </c>
       <c r="C7">
-        <v>0.1053685497978734</v>
+        <v>0.03193679198660959</v>
       </c>
       <c r="D7">
-        <v>0.1824947452262791</v>
+        <v>0.245929582573325</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7704859383806308</v>
+        <v>1.566257428045411</v>
       </c>
       <c r="G7">
-        <v>0.0008239218831909145</v>
+        <v>0.002475506698962904</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3630006654838702</v>
+        <v>0.7807078133820582</v>
       </c>
       <c r="J7">
-        <v>0.1759226767117852</v>
+        <v>0.3051393927477974</v>
       </c>
       <c r="K7">
-        <v>0.7075916684304531</v>
+        <v>0.2473736020081958</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3224079245401654</v>
+        <v>0.2512311751758958</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.751361140730182</v>
+        <v>3.667394999020601</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7771256770630828</v>
+        <v>0.2772214052493496</v>
       </c>
       <c r="C8">
-        <v>0.1261302324940345</v>
+        <v>0.03833255960796578</v>
       </c>
       <c r="D8">
-        <v>0.2124769754732938</v>
+        <v>0.2525178720542129</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7944473662309406</v>
+        <v>1.558324759679593</v>
       </c>
       <c r="G8">
-        <v>0.0008191866945173425</v>
+        <v>0.0024723840993569</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3528528435926397</v>
+        <v>0.7711415878168957</v>
       </c>
       <c r="J8">
-        <v>0.1926350120762237</v>
+        <v>0.3068079892723574</v>
       </c>
       <c r="K8">
-        <v>0.8529201290031949</v>
+        <v>0.291749981168806</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3875626265431791</v>
+        <v>0.2683803299744767</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.754847581593069</v>
+        <v>3.634558114205291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.039233156333211</v>
+        <v>0.3567616941825804</v>
       </c>
       <c r="C9">
-        <v>0.1669488570946953</v>
+        <v>0.05080855616512281</v>
       </c>
       <c r="D9">
-        <v>0.2726662479509656</v>
+        <v>0.2662569771014205</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8535414513071871</v>
+        <v>1.548966081653916</v>
       </c>
       <c r="G9">
-        <v>0.0008104789217177194</v>
+        <v>0.002466879999272103</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3389288030890434</v>
+        <v>0.7553684716751761</v>
       </c>
       <c r="J9">
-        <v>0.2279110488069733</v>
+        <v>0.3113212405861745</v>
       </c>
       <c r="K9">
-        <v>1.138616667701086</v>
+        <v>0.378649376119256</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5171235165477341</v>
+        <v>0.3028171862646403</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.791260962345831</v>
+        <v>3.584838411757715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.232828359066758</v>
+        <v>0.4151723077485485</v>
       </c>
       <c r="C10">
-        <v>0.1971154873039893</v>
+        <v>0.05993250993424226</v>
       </c>
       <c r="D10">
-        <v>0.3179568305856435</v>
+        <v>0.2768462338728455</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9054091442797159</v>
+        <v>1.545865212220988</v>
       </c>
       <c r="G10">
-        <v>0.000804411498976607</v>
+        <v>0.002463209977269934</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3327681215766027</v>
+        <v>0.7456004849721936</v>
       </c>
       <c r="J10">
-        <v>0.2556465529950742</v>
+        <v>0.3153936555668935</v>
       </c>
       <c r="K10">
-        <v>1.349641774905422</v>
+        <v>0.4424012219393774</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6138397971933642</v>
+        <v>0.3286035171193191</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.838488719516931</v>
+        <v>3.557255179384185</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.321270080884744</v>
+        <v>0.4417352967986687</v>
       </c>
       <c r="C11">
-        <v>0.2109049154718434</v>
+        <v>0.06407373759810753</v>
       </c>
       <c r="D11">
-        <v>0.3388451291132384</v>
+        <v>0.281770211904572</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9310943748007787</v>
+        <v>1.545273719586589</v>
       </c>
       <c r="G11">
-        <v>0.0008017177890856789</v>
+        <v>0.002461620777164136</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3309500227445028</v>
+        <v>0.7415521114058627</v>
       </c>
       <c r="J11">
-        <v>0.2687284694679875</v>
+        <v>0.3174106068478153</v>
       </c>
       <c r="K11">
-        <v>1.446053200110924</v>
+        <v>0.4713798554942343</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.658274239616091</v>
+        <v>0.3404385862284371</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.864999921798301</v>
+        <v>3.546649682411868</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.354827355951613</v>
+        <v>0.4517923935321733</v>
       </c>
       <c r="C12">
-        <v>0.2161385884796232</v>
+        <v>0.06564052609540738</v>
       </c>
       <c r="D12">
-        <v>0.3468005922723876</v>
+        <v>0.2836500615634492</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9411439638587353</v>
+        <v>1.545167450950686</v>
       </c>
       <c r="G12">
-        <v>0.0008007068493954456</v>
+        <v>0.002461030477548332</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3304121718843192</v>
+        <v>0.7400759250156597</v>
       </c>
       <c r="J12">
-        <v>0.2737552836648689</v>
+        <v>0.318197998320727</v>
       </c>
       <c r="K12">
-        <v>1.482635937119142</v>
+        <v>0.482349653598078</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6751724749071215</v>
+        <v>0.3449351131577885</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.875813864466295</v>
+        <v>3.542912955648603</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.347597038123922</v>
+        <v>0.4496265033344287</v>
       </c>
       <c r="C13">
-        <v>0.215010853854281</v>
+        <v>0.06530315368399897</v>
       </c>
       <c r="D13">
-        <v>0.3450851418800056</v>
+        <v>0.2832445261759915</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9389648569077167</v>
+        <v>1.545185103438172</v>
       </c>
       <c r="G13">
-        <v>0.00080092417542668</v>
+        <v>0.002461157098766393</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3305211576903844</v>
+        <v>0.7403913195769931</v>
       </c>
       <c r="J13">
-        <v>0.2726693214636668</v>
+        <v>0.3180273695315634</v>
       </c>
       <c r="K13">
-        <v>1.474753670289374</v>
+        <v>0.4799872883876901</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6715297917280765</v>
+        <v>0.3439660489505272</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.873449568050376</v>
+        <v>3.543705301877566</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.324029454196761</v>
+        <v>0.4425627379633283</v>
       </c>
       <c r="C14">
-        <v>0.2113352399203166</v>
+        <v>0.06420266675965536</v>
       </c>
       <c r="D14">
-        <v>0.3394986908502631</v>
+        <v>0.281924563412403</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9319145493529106</v>
+        <v>1.545262617985387</v>
       </c>
       <c r="G14">
-        <v>0.0008016344385637643</v>
+        <v>0.002461571982741403</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3309027005804452</v>
+        <v>0.7414295252638681</v>
       </c>
       <c r="J14">
-        <v>0.2691405293135318</v>
+        <v>0.3174749128564258</v>
       </c>
       <c r="K14">
-        <v>1.449061319593795</v>
+        <v>0.4722824263764949</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6596629736343971</v>
+        <v>0.3408082219758768</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.865873754882983</v>
+        <v>3.546336660877699</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.309602651198304</v>
+        <v>0.4382357363712117</v>
       </c>
       <c r="C15">
-        <v>0.2090854451875401</v>
+        <v>0.06352840185950015</v>
       </c>
       <c r="D15">
-        <v>0.336082894262546</v>
+        <v>0.28111802996915</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9276388121653838</v>
+        <v>1.545325425996396</v>
       </c>
       <c r="G15">
-        <v>0.0008020706680613721</v>
+        <v>0.002461827606824005</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3311563018335519</v>
+        <v>0.7420728598465942</v>
       </c>
       <c r="J15">
-        <v>0.2669887350661497</v>
+        <v>0.3171395919724915</v>
       </c>
       <c r="K15">
-        <v>1.433334064631481</v>
+        <v>0.4675624668588512</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6524038413917239</v>
+        <v>0.3388758883140497</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.861335842877509</v>
+        <v>3.547984824680441</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.227057063211618</v>
+        <v>0.4134361410297913</v>
       </c>
       <c r="C16">
-        <v>0.196215850652294</v>
+        <v>0.0596616780389212</v>
       </c>
       <c r="D16">
-        <v>0.3165978498511635</v>
+        <v>0.2765265804369932</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.903774510755909</v>
+        <v>1.545920344240599</v>
       </c>
       <c r="G16">
-        <v>0.000804588838369813</v>
+        <v>0.002463315446900011</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3329075087643929</v>
+        <v>0.7458730089407446</v>
       </c>
       <c r="J16">
-        <v>0.2548014877309015</v>
+        <v>0.3152651490131433</v>
       </c>
       <c r="K16">
-        <v>1.343350598052638</v>
+        <v>0.440506901387522</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.610945459069768</v>
+        <v>0.3278321564707625</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.836861657844452</v>
+        <v>3.557987361045718</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176522485085002</v>
+        <v>0.3982198851832379</v>
       </c>
       <c r="C17">
-        <v>0.1883394163779855</v>
+        <v>0.05728713764061411</v>
       </c>
       <c r="D17">
-        <v>0.3047205925757623</v>
+        <v>0.2737371605431065</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8896854958945966</v>
+        <v>1.546495051011021</v>
       </c>
       <c r="G17">
-        <v>0.0008061503557978578</v>
+        <v>0.002464248720806292</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3342402118795782</v>
+        <v>0.7483054982158563</v>
       </c>
       <c r="J17">
-        <v>0.2474483018327902</v>
+        <v>0.3141573265871642</v>
       </c>
       <c r="K17">
-        <v>1.288264690620309</v>
+        <v>0.4239030516888818</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.585630352420452</v>
+        <v>0.3210838553914428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.823170862626654</v>
+        <v>3.564621087477605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.147490761287486</v>
+        <v>0.3894671488631047</v>
       </c>
       <c r="C18">
-        <v>0.1838152049936923</v>
+        <v>0.05592049297123936</v>
       </c>
       <c r="D18">
-        <v>0.2979156843255453</v>
+        <v>0.2721428265962231</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8817771822737654</v>
+        <v>1.546902709724563</v>
       </c>
       <c r="G18">
-        <v>0.0008070547760576454</v>
+        <v>0.002464793077488568</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3350988285715566</v>
+        <v>0.749741791947379</v>
       </c>
       <c r="J18">
-        <v>0.2432623107353322</v>
+        <v>0.3135356109272038</v>
       </c>
       <c r="K18">
-        <v>1.256618891955981</v>
+        <v>0.4143508814021573</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5711104014653188</v>
+        <v>0.3172122825524468</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.81576614138072</v>
+        <v>3.568619442565193</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137666665901719</v>
+        <v>0.3865035106292396</v>
       </c>
       <c r="C19">
-        <v>0.1822843645414736</v>
+        <v>0.05545762286237732</v>
       </c>
       <c r="D19">
-        <v>0.295616092199495</v>
+        <v>0.2716047451809089</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8791324462575432</v>
+        <v>1.54705398052883</v>
       </c>
       <c r="G19">
-        <v>0.0008073620882660845</v>
+        <v>0.002464978687771968</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3354050901181544</v>
+        <v>0.7502344830176035</v>
       </c>
       <c r="J19">
-        <v>0.2418522746847742</v>
+        <v>0.3133277671498718</v>
       </c>
       <c r="K19">
-        <v>1.24591030822117</v>
+        <v>0.4111163413730026</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5662009117137998</v>
+        <v>0.3159031365894407</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.813338207281475</v>
+        <v>3.570004613319355</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.181898326361761</v>
+        <v>0.3998397629573844</v>
       </c>
       <c r="C20">
-        <v>0.1891772278982415</v>
+        <v>0.05754000223569733</v>
       </c>
       <c r="D20">
-        <v>0.3059821648924981</v>
+        <v>0.2740330580819403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8911649226979392</v>
+        <v>1.546425893170436</v>
       </c>
       <c r="G20">
-        <v>0.0008059834830148604</v>
+        <v>0.002464148589785101</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3340887495933451</v>
+        <v>0.7480427063460802</v>
       </c>
       <c r="J20">
-        <v>0.2482265297042403</v>
+        <v>0.3142736547903553</v>
       </c>
       <c r="K20">
-        <v>1.294124631185269</v>
+        <v>0.4256707786636014</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5883209211257281</v>
+        <v>0.3218012034833038</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.824579278026448</v>
+        <v>3.563895995334605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.330949920954538</v>
+        <v>0.4446375883350981</v>
       </c>
       <c r="C21">
-        <v>0.2124145137233171</v>
+        <v>0.06452594509352139</v>
       </c>
       <c r="D21">
-        <v>0.3411382943582453</v>
+        <v>0.2823118556716793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9339764378413093</v>
+        <v>1.545236655845017</v>
       </c>
       <c r="G21">
-        <v>0.0008014255734517582</v>
+        <v>0.002461449809611994</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3307864689851066</v>
+        <v>0.7411230361340593</v>
       </c>
       <c r="J21">
-        <v>0.2701749895813208</v>
+        <v>0.3176365420337532</v>
       </c>
       <c r="K21">
-        <v>1.456605664271166</v>
+        <v>0.4745456382036082</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.663146520671603</v>
+        <v>0.3417353512050099</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.868077497896991</v>
+        <v>3.545556185214423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.428756762069241</v>
+        <v>0.4739052202308471</v>
       </c>
       <c r="C22">
-        <v>0.2276721093619898</v>
+        <v>0.06908344514049247</v>
       </c>
       <c r="D22">
-        <v>0.3643824748972548</v>
+        <v>0.2878113374308242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9638514173164623</v>
+        <v>1.545145531122557</v>
       </c>
       <c r="G22">
-        <v>0.0007984995913057535</v>
+        <v>0.00245975298458935</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3295108487250396</v>
+        <v>0.7369319784417598</v>
       </c>
       <c r="J22">
-        <v>0.2849480996515865</v>
+        <v>0.3199720232606182</v>
       </c>
       <c r="K22">
-        <v>1.563234048790065</v>
+        <v>0.5064658839794731</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7124729427206873</v>
+        <v>0.3548498849590729</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.901048505572135</v>
+        <v>3.535198317362074</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.376515077046719</v>
+        <v>0.4582856575215999</v>
       </c>
       <c r="C23">
-        <v>0.2195215472231382</v>
+        <v>0.06665179541168698</v>
       </c>
       <c r="D23">
-        <v>0.3519505694684142</v>
+        <v>0.2848680748184051</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9477253017485197</v>
+        <v>1.545131410221288</v>
       </c>
       <c r="G23">
-        <v>0.0008000565565971507</v>
+        <v>0.002460652500228509</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3301077533339729</v>
+        <v>0.7391384982203633</v>
       </c>
       <c r="J23">
-        <v>0.2770220642585173</v>
+        <v>0.3187129466236058</v>
       </c>
       <c r="K23">
-        <v>1.506279475674603</v>
+        <v>0.4894316732242885</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6861046246574887</v>
+        <v>0.3478425764556263</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.883017540906224</v>
+        <v>3.540577503971633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.17946784317644</v>
+        <v>0.3991074308410418</v>
       </c>
       <c r="C24">
-        <v>0.1887984408535459</v>
+        <v>0.05742568678770965</v>
       </c>
       <c r="D24">
-        <v>0.3054117352320276</v>
+        <v>0.2738992537012024</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8904954785846826</v>
+        <v>1.546456918788678</v>
       </c>
       <c r="G24">
-        <v>0.0008060589054002797</v>
+        <v>0.002464193834819332</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3341569384788237</v>
+        <v>0.7481613967343392</v>
       </c>
       <c r="J24">
-        <v>0.2478745642233662</v>
+        <v>0.3142210155055096</v>
       </c>
       <c r="K24">
-        <v>1.291475278907626</v>
+        <v>0.4248716091793483</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5871044096514026</v>
+        <v>0.3214768651170843</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.823941084883501</v>
+        <v>3.564223234668987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9681931530225825</v>
+        <v>0.3352474772067353</v>
       </c>
       <c r="C25">
-        <v>0.1558839053308247</v>
+        <v>0.0474407380979045</v>
       </c>
       <c r="D25">
-        <v>0.2562123426420726</v>
+        <v>0.2624529128588193</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8361523492320018</v>
+        <v>1.550834708140798</v>
       </c>
       <c r="G25">
-        <v>0.0008127749511473437</v>
+        <v>0.002468303087681534</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3420134497008576</v>
+        <v>0.7593158179970665</v>
       </c>
       <c r="J25">
-        <v>0.2180709142672725</v>
+        <v>0.3099674240017691</v>
       </c>
       <c r="K25">
-        <v>1.06118379381499</v>
+        <v>0.3551558196492977</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4818387296290823</v>
+        <v>0.2934153528473331</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.778000735054547</v>
+        <v>3.596717967307058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2882132122826988</v>
+        <v>0.8132721197423507</v>
       </c>
       <c r="C2">
-        <v>0.04006109076328812</v>
+        <v>0.1317588000277254</v>
       </c>
       <c r="D2">
-        <v>0.2543585930202283</v>
+        <v>0.2206873289233329</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.556594914100124</v>
+        <v>0.8017214973185887</v>
       </c>
       <c r="G2">
-        <v>0.00247158008162638</v>
+        <v>0.0008179435880320551</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.768751709634742</v>
+        <v>0.3504927830502922</v>
       </c>
       <c r="J2">
-        <v>0.3073440924463711</v>
+        <v>0.1973224136984655</v>
       </c>
       <c r="K2">
-        <v>0.3037661563881215</v>
+        <v>0.8923207217905826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2730817823166234</v>
+        <v>0.4053224375153803</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.62665395167744</v>
+        <v>1.757708364372974</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2563337833487935</v>
+        <v>0.7084742639796957</v>
       </c>
       <c r="C3">
-        <v>0.03504299120776011</v>
+        <v>0.1154397023612006</v>
       </c>
       <c r="D3">
-        <v>0.2490823709131149</v>
+        <v>0.1969754757666493</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.562082103744899</v>
+        <v>0.7815153805987194</v>
       </c>
       <c r="G3">
-        <v>0.002473959002247813</v>
+        <v>0.0008215933054765529</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7759094548576009</v>
+        <v>0.3577797598867889</v>
       </c>
       <c r="J3">
-        <v>0.3058834325174828</v>
+        <v>0.1839101809460288</v>
       </c>
       <c r="K3">
-        <v>0.2689076935155867</v>
+        <v>0.7780857093245572</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2595079266723488</v>
+        <v>0.3539396104641881</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.650691019819192</v>
+        <v>1.751591683069236</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2367600123551483</v>
+        <v>0.6441620426724342</v>
       </c>
       <c r="C4">
-        <v>0.031953788277022</v>
+        <v>0.1054235992735642</v>
       </c>
       <c r="D4">
-        <v>0.2459465689774305</v>
+        <v>0.1825735467502341</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.566232761400791</v>
+        <v>0.770542961035801</v>
       </c>
       <c r="G4">
-        <v>0.002475498054288273</v>
+        <v>0.0008239089768357258</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7806806984437777</v>
+        <v>0.3629704879858906</v>
       </c>
       <c r="J4">
-        <v>0.3051430898805805</v>
+        <v>0.1759656817300126</v>
       </c>
       <c r="K4">
-        <v>0.2474913289713214</v>
+        <v>0.707976970580745</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2512761700026616</v>
+        <v>0.3225798698418103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.66729933361367</v>
+        <v>1.751354379726081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2287841212755097</v>
+        <v>0.617954737603327</v>
       </c>
       <c r="C5">
-        <v>0.0306929443917312</v>
+        <v>0.101341434330962</v>
       </c>
       <c r="D5">
-        <v>0.2446949278645434</v>
+        <v>0.1767411659853337</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.568120812025718</v>
+        <v>0.7664170402625885</v>
       </c>
       <c r="G5">
-        <v>0.002476144998871488</v>
+        <v>0.0008248717385150455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7827196588047549</v>
+        <v>0.3652597838701865</v>
       </c>
       <c r="J5">
-        <v>0.3048807777764395</v>
+        <v>0.1727972210823694</v>
       </c>
       <c r="K5">
-        <v>0.2387612012149418</v>
+        <v>0.6794059804263668</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2479476766143662</v>
+        <v>0.3098422554926117</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.674532481536929</v>
+        <v>1.752107518433078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.227459780311932</v>
+        <v>0.6136028332271621</v>
       </c>
       <c r="C6">
-        <v>0.0304834651157222</v>
+        <v>0.1006635203521142</v>
       </c>
       <c r="D6">
-        <v>0.2444886811089333</v>
+        <v>0.1757748240839589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.568446200211483</v>
+        <v>0.7657523659859962</v>
       </c>
       <c r="G6">
-        <v>0.002476253619135447</v>
+        <v>0.0008250327673877787</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7830639426766304</v>
+        <v>0.3656502567018975</v>
       </c>
       <c r="J6">
-        <v>0.3048396005534784</v>
+        <v>0.1722751510927196</v>
       </c>
       <c r="K6">
-        <v>0.2373114171440704</v>
+        <v>0.6746614647568236</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2473965600137191</v>
+        <v>0.3077295378199167</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.675761634569881</v>
+        <v>1.752282916139734</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2366524436915824</v>
+        <v>0.6438086103746059</v>
       </c>
       <c r="C7">
-        <v>0.03193679198660959</v>
+        <v>0.1053685497980297</v>
       </c>
       <c r="D7">
-        <v>0.245929582573325</v>
+        <v>0.182494745226407</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.566257428045411</v>
+        <v>0.7704859383806166</v>
       </c>
       <c r="G7">
-        <v>0.002475506698962904</v>
+        <v>0.00082392188319049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7807078133820582</v>
+        <v>0.3630006654838738</v>
       </c>
       <c r="J7">
-        <v>0.3051393927477974</v>
+        <v>0.1759226767118136</v>
       </c>
       <c r="K7">
-        <v>0.2473736020081958</v>
+        <v>0.7075916684305668</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2512311751758958</v>
+        <v>0.3224079245401512</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.667394999020601</v>
+        <v>1.751361140730182</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2772214052493496</v>
+        <v>0.7771256770629691</v>
       </c>
       <c r="C8">
-        <v>0.03833255960796578</v>
+        <v>0.1261302324937787</v>
       </c>
       <c r="D8">
-        <v>0.2525178720542129</v>
+        <v>0.2124769754732512</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.558324759679593</v>
+        <v>0.7944473662309335</v>
       </c>
       <c r="G8">
-        <v>0.0024723840993569</v>
+        <v>0.0008191866944570746</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7711415878168957</v>
+        <v>0.352852843592629</v>
       </c>
       <c r="J8">
-        <v>0.3068079892723574</v>
+        <v>0.1926350120763516</v>
       </c>
       <c r="K8">
-        <v>0.291749981168806</v>
+        <v>0.8529201290030812</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2683803299744767</v>
+        <v>0.3875626265432004</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.634558114205291</v>
+        <v>1.754847581593069</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3567616941825804</v>
+        <v>1.039233156333211</v>
       </c>
       <c r="C9">
-        <v>0.05080855616512281</v>
+        <v>0.1669488570946953</v>
       </c>
       <c r="D9">
-        <v>0.2662569771014205</v>
+        <v>0.2726662479510935</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.548966081653916</v>
+        <v>0.85354145130718</v>
       </c>
       <c r="G9">
-        <v>0.002466879999272103</v>
+        <v>0.0008104789217172222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7553684716751761</v>
+        <v>0.3389288030890398</v>
       </c>
       <c r="J9">
-        <v>0.3113212405861745</v>
+        <v>0.2279110488070373</v>
       </c>
       <c r="K9">
-        <v>0.378649376119256</v>
+        <v>1.138616667701228</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3028171862646403</v>
+        <v>0.5171235165477128</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.584838411757715</v>
+        <v>1.791260962345859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4151723077485485</v>
+        <v>1.232828359066843</v>
       </c>
       <c r="C10">
-        <v>0.05993250993424226</v>
+        <v>0.1971154873044583</v>
       </c>
       <c r="D10">
-        <v>0.2768462338728455</v>
+        <v>0.3179568305857003</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.545865212220988</v>
+        <v>0.9054091442797016</v>
       </c>
       <c r="G10">
-        <v>0.002463209977269934</v>
+        <v>0.0008044114989764715</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7456004849721936</v>
+        <v>0.3327681215766027</v>
       </c>
       <c r="J10">
-        <v>0.3153936555668935</v>
+        <v>0.2556465529950742</v>
       </c>
       <c r="K10">
-        <v>0.4424012219393774</v>
+        <v>1.349641774905365</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3286035171193191</v>
+        <v>0.6138397971933642</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.557255179384185</v>
+        <v>1.838488719516903</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4417352967986687</v>
+        <v>1.321270080884631</v>
       </c>
       <c r="C11">
-        <v>0.06407373759810753</v>
+        <v>0.2109049154717155</v>
       </c>
       <c r="D11">
-        <v>0.281770211904572</v>
+        <v>0.3388451291131247</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.545273719586589</v>
+        <v>0.9310943748007929</v>
       </c>
       <c r="G11">
-        <v>0.002461620777164136</v>
+        <v>0.0008017177891358605</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7415521114058627</v>
+        <v>0.3309500227445135</v>
       </c>
       <c r="J11">
-        <v>0.3174106068478153</v>
+        <v>0.2687284694679732</v>
       </c>
       <c r="K11">
-        <v>0.4713798554942343</v>
+        <v>1.446053200110782</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3404385862284371</v>
+        <v>0.658274239616091</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.546649682411868</v>
+        <v>1.864999921798159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4517923935321733</v>
+        <v>1.354827355951471</v>
       </c>
       <c r="C12">
-        <v>0.06564052609540738</v>
+        <v>0.2161385884797227</v>
       </c>
       <c r="D12">
-        <v>0.2836500615634492</v>
+        <v>0.3468005922721176</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.545167450950686</v>
+        <v>0.9411439638587353</v>
       </c>
       <c r="G12">
-        <v>0.002461030477548332</v>
+        <v>0.0008007068493957948</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7400759250156597</v>
+        <v>0.3304121718843192</v>
       </c>
       <c r="J12">
-        <v>0.318197998320727</v>
+        <v>0.2737552836648689</v>
       </c>
       <c r="K12">
-        <v>0.482349653598078</v>
+        <v>1.482635937119142</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3449351131577885</v>
+        <v>0.6751724749071215</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.542912955648603</v>
+        <v>1.875813864466295</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4496265033344287</v>
+        <v>1.347597038123837</v>
       </c>
       <c r="C13">
-        <v>0.06530315368399897</v>
+        <v>0.2150108538543094</v>
       </c>
       <c r="D13">
-        <v>0.2832445261759915</v>
+        <v>0.3450851418798493</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.545185103438172</v>
+        <v>0.9389648569077025</v>
       </c>
       <c r="G13">
-        <v>0.002461157098766393</v>
+        <v>0.0008009241754023144</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7403913195769931</v>
+        <v>0.330521157690395</v>
       </c>
       <c r="J13">
-        <v>0.3180273695315634</v>
+        <v>0.2726693214636953</v>
       </c>
       <c r="K13">
-        <v>0.4799872883876901</v>
+        <v>1.474753670289374</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3439660489505272</v>
+        <v>0.6715297917280836</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.543705301877566</v>
+        <v>1.873449568050347</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4425627379633283</v>
+        <v>1.324029454196506</v>
       </c>
       <c r="C14">
-        <v>0.06420266675965536</v>
+        <v>0.2113352399205155</v>
       </c>
       <c r="D14">
-        <v>0.281924563412403</v>
+        <v>0.3394986908501636</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.545262617985387</v>
+        <v>0.9319145493529106</v>
       </c>
       <c r="G14">
-        <v>0.002461571982741403</v>
+        <v>0.0008016344385379713</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7414295252638681</v>
+        <v>0.3309027005804417</v>
       </c>
       <c r="J14">
-        <v>0.3174749128564258</v>
+        <v>0.2691405293134181</v>
       </c>
       <c r="K14">
-        <v>0.4722824263764949</v>
+        <v>1.449061319593795</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3408082219758768</v>
+        <v>0.6596629736344042</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.546336660877699</v>
+        <v>1.86587375488304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4382357363712117</v>
+        <v>1.309602651198418</v>
       </c>
       <c r="C15">
-        <v>0.06352840185950015</v>
+        <v>0.209085445187668</v>
       </c>
       <c r="D15">
-        <v>0.28111802996915</v>
+        <v>0.3360828942626028</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.545325425996396</v>
+        <v>0.9276388121653696</v>
       </c>
       <c r="G15">
-        <v>0.002461827606824005</v>
+        <v>0.0008020706681727101</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7420728598465942</v>
+        <v>0.3311563018335661</v>
       </c>
       <c r="J15">
-        <v>0.3171395919724915</v>
+        <v>0.2669887350661355</v>
       </c>
       <c r="K15">
-        <v>0.4675624668588512</v>
+        <v>1.433334064631396</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3388758883140497</v>
+        <v>0.6524038413917239</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.547984824680441</v>
+        <v>1.861335842877452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4134361410297913</v>
+        <v>1.227057063211561</v>
       </c>
       <c r="C16">
-        <v>0.0596616780389212</v>
+        <v>0.1962158506527061</v>
       </c>
       <c r="D16">
-        <v>0.2765265804369932</v>
+        <v>0.3165978498512629</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.545920344240599</v>
+        <v>0.903774510755909</v>
       </c>
       <c r="G16">
-        <v>0.002463315446900011</v>
+        <v>0.0008045888383976111</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7458730089407446</v>
+        <v>0.3329075087643965</v>
       </c>
       <c r="J16">
-        <v>0.3152651490131433</v>
+        <v>0.2548014877309157</v>
       </c>
       <c r="K16">
-        <v>0.440506901387522</v>
+        <v>1.343350598052552</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3278321564707625</v>
+        <v>0.6109454590697752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.557987361045718</v>
+        <v>1.836861657844508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3982198851832379</v>
+        <v>1.176522485085002</v>
       </c>
       <c r="C17">
-        <v>0.05728713764061411</v>
+        <v>0.1883394163785255</v>
       </c>
       <c r="D17">
-        <v>0.2737371605431065</v>
+        <v>0.3047205925758618</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.546495051011021</v>
+        <v>0.889685495894625</v>
       </c>
       <c r="G17">
-        <v>0.002464248720806292</v>
+        <v>0.0008061503557975041</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7483054982158563</v>
+        <v>0.3342402118795675</v>
       </c>
       <c r="J17">
-        <v>0.3141573265871642</v>
+        <v>0.2474483018327618</v>
       </c>
       <c r="K17">
-        <v>0.4239030516888818</v>
+        <v>1.288264690620338</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3210838553914428</v>
+        <v>0.5856303524204378</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.564621087477605</v>
+        <v>1.823170862626682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3894671488631047</v>
+        <v>1.147490761287344</v>
       </c>
       <c r="C18">
-        <v>0.05592049297123936</v>
+        <v>0.1838152049935928</v>
       </c>
       <c r="D18">
-        <v>0.2721428265962231</v>
+        <v>0.2979156843255453</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.546902709724563</v>
+        <v>0.8817771822737654</v>
       </c>
       <c r="G18">
-        <v>0.002464793077488568</v>
+        <v>0.0008070547761729839</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.749741791947379</v>
+        <v>0.3350988285715495</v>
       </c>
       <c r="J18">
-        <v>0.3135356109272038</v>
+        <v>0.2432623107354175</v>
       </c>
       <c r="K18">
-        <v>0.4143508814021573</v>
+        <v>1.256618891956094</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3172122825524468</v>
+        <v>0.571110401465333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.568619442565193</v>
+        <v>1.815766141380692</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3865035106292396</v>
+        <v>1.137666665901691</v>
       </c>
       <c r="C19">
-        <v>0.05545762286237732</v>
+        <v>0.1822843645414025</v>
       </c>
       <c r="D19">
-        <v>0.2716047451809089</v>
+        <v>0.295616092199424</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.54705398052883</v>
+        <v>0.8791324462575716</v>
       </c>
       <c r="G19">
-        <v>0.002464978687771968</v>
+        <v>0.0008073620881254295</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7502344830176035</v>
+        <v>0.335405090118158</v>
       </c>
       <c r="J19">
-        <v>0.3133277671498718</v>
+        <v>0.2418522746848168</v>
       </c>
       <c r="K19">
-        <v>0.4111163413730026</v>
+        <v>1.245910308221255</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3159031365894407</v>
+        <v>0.5662009117138069</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.570004613319355</v>
+        <v>1.813338207281504</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3998397629573844</v>
+        <v>1.181898326361761</v>
       </c>
       <c r="C20">
-        <v>0.05754000223569733</v>
+        <v>0.1891772278980994</v>
       </c>
       <c r="D20">
-        <v>0.2740330580819403</v>
+        <v>0.3059821648923702</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.546425893170436</v>
+        <v>0.8911649226979108</v>
       </c>
       <c r="G20">
-        <v>0.002464148589785101</v>
+        <v>0.0008059834830976787</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7480427063460802</v>
+        <v>0.3340887495933345</v>
       </c>
       <c r="J20">
-        <v>0.3142736547903553</v>
+        <v>0.2482265297043256</v>
       </c>
       <c r="K20">
-        <v>0.4256707786636014</v>
+        <v>1.294124631185326</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3218012034833038</v>
+        <v>0.5883209211257068</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.563895995334605</v>
+        <v>1.824579278026391</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4446375883350981</v>
+        <v>1.330949920954509</v>
       </c>
       <c r="C21">
-        <v>0.06452594509352139</v>
+        <v>0.212414513723445</v>
       </c>
       <c r="D21">
-        <v>0.2823118556716793</v>
+        <v>0.3411382943583305</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.545236655845017</v>
+        <v>0.9339764378412951</v>
       </c>
       <c r="G21">
-        <v>0.002461449809611994</v>
+        <v>0.000801425573449491</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7411230361340593</v>
+        <v>0.3307864689850994</v>
       </c>
       <c r="J21">
-        <v>0.3176365420337532</v>
+        <v>0.2701749895812782</v>
       </c>
       <c r="K21">
-        <v>0.4745456382036082</v>
+        <v>1.456605664271194</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3417353512050099</v>
+        <v>0.6631465206715959</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.545556185214423</v>
+        <v>1.868077497897048</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4739052202308471</v>
+        <v>1.428756762069412</v>
       </c>
       <c r="C22">
-        <v>0.06908344514049247</v>
+        <v>0.2276721093618903</v>
       </c>
       <c r="D22">
-        <v>0.2878113374308242</v>
+        <v>0.3643824748972975</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.545145531122557</v>
+        <v>0.9638514173164623</v>
       </c>
       <c r="G22">
-        <v>0.00245975298458935</v>
+        <v>0.0007984995913359631</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7369319784417598</v>
+        <v>0.3295108487250289</v>
       </c>
       <c r="J22">
-        <v>0.3199720232606182</v>
+        <v>0.2849480996516007</v>
       </c>
       <c r="K22">
-        <v>0.5064658839794731</v>
+        <v>1.563234048789894</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3548498849590729</v>
+        <v>0.7124729427206944</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.535198317362074</v>
+        <v>1.901048505572049</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4582856575215999</v>
+        <v>1.37651507704669</v>
       </c>
       <c r="C23">
-        <v>0.06665179541168698</v>
+        <v>0.2195215472229251</v>
       </c>
       <c r="D23">
-        <v>0.2848680748184051</v>
+        <v>0.3519505694681442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.545131410221288</v>
+        <v>0.9477253017485197</v>
       </c>
       <c r="G23">
-        <v>0.002460652500228509</v>
+        <v>0.0008000565565671634</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7391384982203633</v>
+        <v>0.3301077533339942</v>
       </c>
       <c r="J23">
-        <v>0.3187129466236058</v>
+        <v>0.2770220642585457</v>
       </c>
       <c r="K23">
-        <v>0.4894316732242885</v>
+        <v>1.50627947567466</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3478425764556263</v>
+        <v>0.6861046246574816</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.540577503971633</v>
+        <v>1.883017540906309</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3991074308410418</v>
+        <v>1.179467843176496</v>
       </c>
       <c r="C24">
-        <v>0.05742568678770965</v>
+        <v>0.1887984408534464</v>
       </c>
       <c r="D24">
-        <v>0.2738992537012024</v>
+        <v>0.3054117352320702</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.546456918788678</v>
+        <v>0.8904954785846826</v>
       </c>
       <c r="G24">
-        <v>0.002464193834819332</v>
+        <v>0.0008060589053402819</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7481613967343392</v>
+        <v>0.334156938478845</v>
       </c>
       <c r="J24">
-        <v>0.3142210155055096</v>
+        <v>0.2478745642235225</v>
       </c>
       <c r="K24">
-        <v>0.4248716091793483</v>
+        <v>1.29147527890774</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3214768651170843</v>
+        <v>0.5871044096513884</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.564223234668987</v>
+        <v>1.823941084883586</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3352474772067353</v>
+        <v>0.9681931530224404</v>
       </c>
       <c r="C25">
-        <v>0.0474407380979045</v>
+        <v>0.1558839053304979</v>
       </c>
       <c r="D25">
-        <v>0.2624529128588193</v>
+        <v>0.2562123426420726</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.550834708140798</v>
+        <v>0.8361523492320018</v>
       </c>
       <c r="G25">
-        <v>0.002468303087681534</v>
+        <v>0.0008127749511257088</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7593158179970665</v>
+        <v>0.3420134497008611</v>
       </c>
       <c r="J25">
-        <v>0.3099674240017691</v>
+        <v>0.2180709142672654</v>
       </c>
       <c r="K25">
-        <v>0.3551558196492977</v>
+        <v>1.061183793815019</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2934153528473331</v>
+        <v>0.4818387296290751</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.596717967307058</v>
+        <v>1.778000735054491</v>
       </c>
     </row>
   </sheetData>
